--- a/Communication Matrix_Data Dictionary.xlsx
+++ b/Communication Matrix_Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESA\trampoline\opt\devel\RTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480E4BA-9695-45FA-AA35-8F23BE6A1F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F9189-8CF7-4169-BB77-9444389F2900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="10155" windowHeight="4725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="10155" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Communication matrix" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t>Network Node</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>25 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x18FEF100</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,31 +664,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -697,50 +689,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,15 +714,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,8 +975,8 @@
   </sheetPr>
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1041,10 +1038,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1064,8 +1061,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1083,8 +1080,8 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1107,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1130,9 +1127,9 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>18</v>
@@ -1156,10 +1153,10 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1176,8 +1173,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1222,7 @@
   <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B16" sqref="B16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1237,487 +1234,487 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="19">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="20">
-        <v>1</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="19">
+      <c r="B13" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="20">
-        <v>1</v>
-      </c>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="19">
+      <c r="B14" s="14">
         <v>5</v>
       </c>
-      <c r="C14" s="20">
-        <v>1</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="20">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20" t="s">
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="20">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20" t="s">
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="19">
+      <c r="B19" s="14">
         <v>2</v>
       </c>
-      <c r="C19" s="20">
-        <v>1</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="20">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23" t="s">
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="19">
+      <c r="B20" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="19">
+      <c r="B21" s="14">
         <v>4</v>
       </c>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="20">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20" t="s">
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="24">
-        <v>1</v>
-      </c>
-      <c r="C25" s="25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="25" t="s">
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="21">
         <v>5</v>
       </c>
     </row>
@@ -1741,9 +1738,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE315238-490E-437E-BF8F-A44F0A19704A}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
@@ -1756,158 +1753,155 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="38">
         <v>6</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="48"/>
-      <c r="C6" s="52" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="52"/>
+      <c r="C6" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="25">
         <v>10</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="48"/>
-      <c r="C7" s="52" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="52"/>
+      <c r="C7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="25">
         <v>11</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="48"/>
-      <c r="C8" s="54" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="52"/>
+      <c r="C8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="28">
         <v>15</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="45" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="25">
         <v>10</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="39" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="54"/>
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="25">
         <v>12</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="47"/>
-      <c r="C11" s="41" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="55"/>
+      <c r="C11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="28">
         <v>13</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="30" t="s">
         <v>81</v>
       </c>
     </row>
